--- a/Matlab files/Thistle/Thistle dimensions.xlsx
+++ b/Matlab files/Thistle/Thistle dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyubo\Desktop\Master final thesis\Masters-Final-Thesis\Matlab files\Thistle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D7CF8E-8AA2-4BEA-9FAC-D386FCB90466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC2193C-8F90-4E26-A5EB-D35890C84357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="C1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,6 +766,10 @@
       <c r="I6" s="20">
         <v>48.53</v>
       </c>
+      <c r="K6" s="6" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,F3:F37)</f>
+        <v>50.37;50.71;51.32;51.88;47.08;47.04;48.42;55;55.87;57.58;48.397;48.765;62.521;45.87;45.838;40.612;46.173;46.41;46.85;46.064;46.03;44.98;50.223;52.278;47.339;47.285;45.52;45.293;48.9;46.108;51.288;50.287;49.162;47.32;48.271</v>
+      </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C7">
@@ -1556,7 +1560,10 @@
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="17">
+        <f>AVERAGE(G3:G37)</f>
+        <v>47.905814285714285</v>
+      </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
     </row>
